--- a/video_level_unique_videos_categorized.xlsx
+++ b/video_level_unique_videos_categorized.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Documents\ALL WORK\GIRS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uzair\Desktop\GIRS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D694C8-FF1C-419E-BD94-4732FA59FE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0315893F-D045-4773-88F3-82F63C8FA428}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11190" yWindow="0" windowWidth="11460" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="16920" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -609,9 +609,6 @@
     <t>Fire jumping roads, PCH closed</t>
   </si>
   <si>
-    <t>Traffice, fire jumped road, downed power lines and trees</t>
-  </si>
-  <si>
     <t>Ignition at 10:30 a.m., 12:30 p.m. residents free / gridlock, assisted living facility evacuated</t>
   </si>
   <si>
@@ -619,6 +616,9 @@
   </si>
   <si>
     <t>Traffic, fire engines blocked, Topanga Canyon closed, people leaving on foot, fire jumping PCH, rapidly evolving conditions</t>
+  </si>
+  <si>
+    <t>Traffic, fire jumped road, downed power lines and trees</t>
   </si>
 </sst>
 </file>
@@ -699,7 +699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -709,9 +709,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="49" workbookViewId="0">
-      <selection activeCell="J39" sqref="A1:K48"/>
+    <sheetView tabSelected="1" topLeftCell="E13" zoomScale="49" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1066,13 +1063,13 @@
       <c r="H1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1456,7 +1453,7 @@
       <c r="I13" t="s">
         <v>148</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>158</v>
       </c>
     </row>
@@ -1488,7 +1485,7 @@
       <c r="I14" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>156</v>
       </c>
     </row>
@@ -1520,7 +1517,7 @@
       <c r="I15" t="s">
         <v>153</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>157</v>
       </c>
     </row>
@@ -1552,7 +1549,7 @@
       <c r="I16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1584,7 +1581,7 @@
       <c r="I17" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1616,7 +1613,7 @@
       <c r="I18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1648,7 +1645,7 @@
       <c r="I19" t="s">
         <v>148</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1680,7 +1677,7 @@
       <c r="I20" t="s">
         <v>148</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="J20" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1712,7 +1709,7 @@
       <c r="I21" t="s">
         <v>148</v>
       </c>
-      <c r="J21" s="6" t="s">
+      <c r="J21" s="5" t="s">
         <v>148</v>
       </c>
       <c r="K21" t="s">
@@ -1747,7 +1744,7 @@
       <c r="I22" t="s">
         <v>186</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="J22" s="5" t="s">
         <v>187</v>
       </c>
       <c r="K22" t="s">
@@ -1782,7 +1779,7 @@
       <c r="I23" t="s">
         <v>189</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1814,7 +1811,7 @@
       <c r="I24" t="s">
         <v>148</v>
       </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1846,7 +1843,7 @@
       <c r="I25" t="s">
         <v>148</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J25" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -1876,10 +1873,10 @@
         <v>145</v>
       </c>
       <c r="I26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" s="6" t="s">
         <v>192</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="K26" t="s">
         <v>183</v>
@@ -1913,7 +1910,7 @@
       <c r="I27" t="s">
         <v>159</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J27" s="5" t="s">
         <v>155</v>
       </c>
     </row>
@@ -1945,7 +1942,7 @@
       <c r="I28" t="s">
         <v>148</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="J28" s="5" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1977,7 +1974,7 @@
       <c r="I29" t="s">
         <v>165</v>
       </c>
-      <c r="J29" s="6" t="s">
+      <c r="J29" s="5" t="s">
         <v>166</v>
       </c>
     </row>
@@ -2009,7 +2006,7 @@
       <c r="I30" t="s">
         <v>148</v>
       </c>
-      <c r="J30" s="6" t="s">
+      <c r="J30" s="5" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2041,7 +2038,7 @@
       <c r="I31" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="6" t="s">
+      <c r="J31" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2073,7 +2070,7 @@
       <c r="I32" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="6" t="s">
+      <c r="J32" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2105,7 +2102,7 @@
       <c r="I33" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="6" t="s">
+      <c r="J33" s="5" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2137,7 +2134,7 @@
       <c r="I34" t="s">
         <v>148</v>
       </c>
-      <c r="J34" s="6" t="s">
+      <c r="J34" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2201,7 +2198,7 @@
       <c r="I36" t="s">
         <v>148</v>
       </c>
-      <c r="J36" s="6" t="s">
+      <c r="J36" s="5" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2233,7 +2230,7 @@
       <c r="I37" t="s">
         <v>148</v>
       </c>
-      <c r="J37" s="6" t="s">
+      <c r="J37" s="5" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2265,7 +2262,7 @@
       <c r="I38" t="s">
         <v>148</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J38" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2295,10 +2292,10 @@
         <v>145</v>
       </c>
       <c r="I39" t="s">
+        <v>193</v>
+      </c>
+      <c r="J39" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>191</v>
       </c>
       <c r="K39" t="s">
         <v>183</v>
@@ -2332,7 +2329,7 @@
       <c r="I40" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="6" t="s">
+      <c r="J40" s="5" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2364,7 +2361,7 @@
       <c r="I41" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="6" t="s">
+      <c r="J41" s="5" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2396,7 +2393,7 @@
       <c r="I42" t="s">
         <v>148</v>
       </c>
-      <c r="J42" s="6" t="s">
+      <c r="J42" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2428,7 +2425,7 @@
       <c r="I43" t="s">
         <v>148</v>
       </c>
-      <c r="J43" s="6" t="s">
+      <c r="J43" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2460,7 +2457,7 @@
       <c r="I44" t="s">
         <v>148</v>
       </c>
-      <c r="J44" s="6" t="s">
+      <c r="J44" s="5" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2492,7 +2489,7 @@
       <c r="I45" t="s">
         <v>148</v>
       </c>
-      <c r="J45" s="6" t="s">
+      <c r="J45" s="5" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2524,7 +2521,7 @@
       <c r="I46" t="s">
         <v>148</v>
       </c>
-      <c r="J46" s="6" t="s">
+      <c r="J46" s="5" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2556,7 +2553,7 @@
       <c r="I47" t="s">
         <v>148</v>
       </c>
-      <c r="J47" s="6" t="s">
+      <c r="J47" s="5" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2588,7 +2585,7 @@
       <c r="I48" t="s">
         <v>148</v>
       </c>
-      <c r="J48" s="6" t="s">
+      <c r="J48" s="5" t="s">
         <v>180</v>
       </c>
     </row>
